--- a/tbl/ham-dan.xlsx
+++ b/tbl/ham-dan.xlsx
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="13" uniqueCount="11">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="11" uniqueCount="10">
   <si>
     <t xml:space="preserve">id</t>
   </si>
@@ -44,9 +44,6 @@
   </si>
   <si>
     <t xml:space="preserve">Fischsoße</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.5</t>
   </si>
   <si>
     <t xml:space="preserve">Esslöffel</t>
@@ -197,10 +194,10 @@
   <dimension ref="A1:E14"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="B2" activeCellId="0" sqref="B2"/>
+      <selection pane="topLeft" activeCell="C2" activeCellId="0" sqref="C2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.66015625" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="11.66796875" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="16.14"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="0" width="17.96"/>
@@ -231,7 +228,7 @@
         <v>5</v>
       </c>
       <c r="C2" s="1" t="n">
-        <v>2</v>
+        <v>6</v>
       </c>
       <c r="D2" s="1" t="s">
         <v>6</v>
@@ -245,11 +242,11 @@
       <c r="B3" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="C3" s="1" t="s">
+      <c r="C3" s="1" t="n">
+        <v>2</v>
+      </c>
+      <c r="D3" s="1" t="s">
         <v>8</v>
-      </c>
-      <c r="D3" s="1" t="s">
-        <v>9</v>
       </c>
       <c r="E3" s="2"/>
     </row>
@@ -258,13 +255,13 @@
         <v>3</v>
       </c>
       <c r="B4" s="1" t="s">
-        <v>10</v>
-      </c>
-      <c r="C4" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="C4" s="1" t="n">
+        <v>2</v>
+      </c>
+      <c r="D4" s="1" t="s">
         <v>8</v>
-      </c>
-      <c r="D4" s="1" t="s">
-        <v>9</v>
       </c>
       <c r="E4" s="2"/>
     </row>
